--- a/data/result.xlsx
+++ b/data/result.xlsx
@@ -26,9 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Enrolment no</t>
-  </si>
-  <si>
     <t>Subj1</t>
   </si>
   <si>
@@ -36,6 +33,9 @@
   </si>
   <si>
     <t>subj3</t>
+  </si>
+  <si>
+    <t>EnrolmentNo</t>
   </si>
 </sst>
 </file>
@@ -84,11 +84,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -373,147 +370,172 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E5:L19"/>
+  <dimension ref="A5:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="C5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="26" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="12" spans="7:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="G12" s="2" t="s">
+    <row r="5" spans="3:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J12" s="2" t="s">
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="2">
+        <v>190600001380</v>
+      </c>
+      <c r="D6">
+        <v>34</v>
+      </c>
+      <c r="E6">
+        <v>34</v>
+      </c>
+      <c r="F6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="2">
+        <v>190600001340</v>
+      </c>
+      <c r="D7">
+        <v>123</v>
+      </c>
+      <c r="E7">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G13" s="3">
-        <v>190600001380</v>
-      </c>
-      <c r="H13">
+      <c r="F7">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="2">
+        <v>190600001360</v>
+      </c>
+      <c r="D8">
+        <v>434</v>
+      </c>
+      <c r="E8">
+        <v>44</v>
+      </c>
+      <c r="F8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="2">
+        <v>1906000013890</v>
+      </c>
+      <c r="D9">
+        <v>45</v>
+      </c>
+      <c r="E9">
+        <v>12</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="2">
+        <v>190600002480</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>64</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="2">
+        <v>190600001980</v>
+      </c>
+      <c r="D11">
+        <v>33</v>
+      </c>
+      <c r="E11">
+        <v>21</v>
+      </c>
+      <c r="F11">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="2">
+        <v>190600002480</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
         <v>34</v>
       </c>
-      <c r="I13">
-        <v>34</v>
-      </c>
-      <c r="J13">
+      <c r="F12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C13" s="2">
+        <v>190600002430</v>
+      </c>
+      <c r="D13">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>64</v>
+      </c>
+      <c r="F13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="2">
+        <v>190600002410</v>
+      </c>
+      <c r="D14">
+        <v>31</v>
+      </c>
+      <c r="E14">
+        <v>54</v>
+      </c>
+      <c r="F14">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="2">
+        <v>190600002180</v>
+      </c>
+      <c r="D15">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G14" s="3">
-        <v>190600001340</v>
-      </c>
-      <c r="H14">
-        <v>123</v>
-      </c>
-      <c r="I14">
-        <v>3</v>
-      </c>
-      <c r="J14">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G15" s="3">
-        <v>190600001360</v>
-      </c>
-      <c r="H15">
-        <v>434</v>
-      </c>
-      <c r="I15">
-        <v>44</v>
-      </c>
-      <c r="J15">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G16" s="3">
-        <v>1906000013890</v>
-      </c>
-      <c r="H16">
-        <v>45</v>
-      </c>
-      <c r="I16">
-        <v>12</v>
-      </c>
-      <c r="J16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G17" s="3">
-        <v>190600002480</v>
-      </c>
-      <c r="H17">
-        <v>2</v>
-      </c>
-      <c r="I17">
-        <v>64</v>
-      </c>
-      <c r="J17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G18" s="3">
-        <v>190600001980</v>
-      </c>
-      <c r="H18">
-        <v>33</v>
-      </c>
-      <c r="I18">
-        <v>21</v>
-      </c>
-      <c r="J18">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G19" s="3">
-        <v>190600002480</v>
-      </c>
-      <c r="H19">
-        <v>3</v>
-      </c>
-      <c r="I19">
-        <v>34</v>
-      </c>
-      <c r="J19">
-        <v>12</v>
+      <c r="E15">
+        <v>24</v>
+      </c>
+      <c r="F15">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
